--- a/IPC2024_base2010/indprod022024.xlsx
+++ b/IPC2024_base2010/indprod022024.xlsx
@@ -1314,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>141.7277901732504</v>
+        <v>141.830643254624</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>189.3862471934884</v>
+        <v>189.8520049376112</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1342,7 +1342,7 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>195.8859741382247</v>
+        <v>196.3559434640963</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1356,7 +1356,7 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>146.3878438721654</v>
+        <v>146.6678403532511</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>153.6803068574328</v>
+        <v>153.7471161922329</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>222.1699883177199</v>
+        <v>356.9240856724249</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1650,7 +1650,7 @@
         <v>39</v>
       </c>
       <c r="D29">
-        <v>170.5740634892911</v>
+        <v>202.7018195133775</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1944,7 +1944,7 @@
         <v>60</v>
       </c>
       <c r="D50">
-        <v>165.4171596049726</v>
+        <v>165.2389535097683</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2294,7 +2294,7 @@
         <v>85</v>
       </c>
       <c r="D75">
-        <v>149.8379103875852</v>
+        <v>147.7322196284138</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2728,7 +2728,7 @@
         <v>116</v>
       </c>
       <c r="D106">
-        <v>117.5902277629222</v>
+        <v>117.5123299282402</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>122.2942156231567</v>
+        <v>122.1408327782662</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5220,7 +5220,7 @@
         <v>15</v>
       </c>
       <c r="D284">
-        <v>150.5327289840493</v>
+        <v>150.8584489213343</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5234,7 +5234,7 @@
         <v>16</v>
       </c>
       <c r="D285">
-        <v>171.9733891396216</v>
+        <v>173.0233630742493</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5248,7 +5248,7 @@
         <v>17</v>
       </c>
       <c r="D286">
-        <v>240.7193133997073</v>
+        <v>240.5712449451356</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5262,7 +5262,7 @@
         <v>18</v>
       </c>
       <c r="D287">
-        <v>151.3924663634357</v>
+        <v>151.9849635751722</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.8219751743546</v>
+        <v>144.2677458715782</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5850,7 +5850,7 @@
         <v>60</v>
       </c>
       <c r="D329">
-        <v>152.8239081029421</v>
+        <v>153.0556526597914</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6200,7 +6200,7 @@
         <v>85</v>
       </c>
       <c r="D354">
-        <v>192.315014099173</v>
+        <v>186.4073003502891</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>121.534576490177</v>
+        <v>121.2533906330986</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -9126,7 +9126,7 @@
         <v>15</v>
       </c>
       <c r="D563">
-        <v>128.3697647115241</v>
+        <v>128.3957473105244</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -9140,7 +9140,7 @@
         <v>16</v>
       </c>
       <c r="D564">
-        <v>234.0676543573088</v>
+        <v>236.8100929811304</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -9154,7 +9154,7 @@
         <v>17</v>
       </c>
       <c r="D565">
-        <v>186.8559101873072</v>
+        <v>187.1842716108039</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -9168,7 +9168,7 @@
         <v>18</v>
       </c>
       <c r="D566">
-        <v>136.6824763762033</v>
+        <v>136.7334786319352</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -9238,7 +9238,7 @@
         <v>23</v>
       </c>
       <c r="D571">
-        <v>154.8754109900149</v>
+        <v>158.9839477671033</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -9756,7 +9756,7 @@
         <v>60</v>
       </c>
       <c r="D608">
-        <v>170.3225168687641</v>
+        <v>170.7079519459458</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -10106,7 +10106,7 @@
         <v>85</v>
       </c>
       <c r="D633">
-        <v>128.9530340581301</v>
+        <v>129.6559293031068</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -13032,7 +13032,7 @@
         <v>15</v>
       </c>
       <c r="D842">
-        <v>146.8731480193949</v>
+        <v>146.8808407856257</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -13046,7 +13046,7 @@
         <v>16</v>
       </c>
       <c r="D843">
-        <v>193.7374277871553</v>
+        <v>196.1279414238896</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -13060,7 +13060,7 @@
         <v>17</v>
       </c>
       <c r="D844">
-        <v>170.6942456467772</v>
+        <v>171.0713957146873</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -13368,7 +13368,7 @@
         <v>39</v>
       </c>
       <c r="D866">
-        <v>131.9166615512248</v>
+        <v>413.0712547918031</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -13662,7 +13662,7 @@
         <v>60</v>
       </c>
       <c r="D887">
-        <v>171.7578272964482</v>
+        <v>171.6549183429504</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -14012,7 +14012,7 @@
         <v>85</v>
       </c>
       <c r="D912">
-        <v>140.7585897481999</v>
+        <v>139.2796242560293</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -14446,7 +14446,7 @@
         <v>116</v>
       </c>
       <c r="D943">
-        <v>141.8143205466505</v>
+        <v>141.1093376361096</v>
       </c>
     </row>
     <row r="944" spans="1:4">
@@ -16938,7 +16938,7 @@
         <v>15</v>
       </c>
       <c r="D1121">
-        <v>175.2155186028218</v>
+        <v>175.3784173423239</v>
       </c>
     </row>
     <row r="1122" spans="1:4">
@@ -16952,7 +16952,7 @@
         <v>16</v>
       </c>
       <c r="D1122">
-        <v>272.4933650006783</v>
+        <v>271.5699458590223</v>
       </c>
     </row>
     <row r="1123" spans="1:4">
@@ -16966,7 +16966,7 @@
         <v>17</v>
       </c>
       <c r="D1123">
-        <v>192.0615139393047</v>
+        <v>192.0635169781393</v>
       </c>
     </row>
     <row r="1124" spans="1:4">
@@ -16980,7 +16980,7 @@
         <v>18</v>
       </c>
       <c r="D1124">
-        <v>152.6509067212565</v>
+        <v>152.2440160828378</v>
       </c>
     </row>
     <row r="1125" spans="1:4">
@@ -17134,7 +17134,7 @@
         <v>29</v>
       </c>
       <c r="D1135">
-        <v>411.1922827806924</v>
+        <v>1163.051668968904</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -17568,7 +17568,7 @@
         <v>60</v>
       </c>
       <c r="D1166">
-        <v>192.4239033513822</v>
+        <v>192.0668699276673</v>
       </c>
     </row>
     <row r="1167" spans="1:4">
@@ -17918,7 +17918,7 @@
         <v>85</v>
       </c>
       <c r="D1191">
-        <v>142.4852627241977</v>
+        <v>141.380978409344</v>
       </c>
     </row>
     <row r="1192" spans="1:4">
@@ -18352,7 +18352,7 @@
         <v>116</v>
       </c>
       <c r="D1222">
-        <v>133.2753083652807</v>
+        <v>132.8683617648529</v>
       </c>
     </row>
     <row r="1223" spans="1:4">
@@ -20844,7 +20844,7 @@
         <v>15</v>
       </c>
       <c r="D1400">
-        <v>156.4550974848065</v>
+        <v>156.6539507285039</v>
       </c>
     </row>
     <row r="1401" spans="1:4">
@@ -20858,7 +20858,7 @@
         <v>16</v>
       </c>
       <c r="D1401">
-        <v>219.9640999692426</v>
+        <v>218.6552969767298</v>
       </c>
     </row>
     <row r="1402" spans="1:4">
@@ -20872,7 +20872,7 @@
         <v>17</v>
       </c>
       <c r="D1402">
-        <v>158.2333680860372</v>
+        <v>157.3000446226699</v>
       </c>
     </row>
     <row r="1403" spans="1:4">
@@ -20956,7 +20956,7 @@
         <v>23</v>
       </c>
       <c r="D1408">
-        <v>147.106486819047</v>
+        <v>147.1276348819321</v>
       </c>
     </row>
     <row r="1409" spans="1:4">
@@ -21474,7 +21474,7 @@
         <v>60</v>
       </c>
       <c r="D1445">
-        <v>151.3022401956657</v>
+        <v>150.5272261927861</v>
       </c>
     </row>
     <row r="1446" spans="1:4">
@@ -21824,7 +21824,7 @@
         <v>85</v>
       </c>
       <c r="D1470">
-        <v>129.3102593186455</v>
+        <v>128.2657751741728</v>
       </c>
     </row>
     <row r="1471" spans="1:4">
@@ -24750,7 +24750,7 @@
         <v>15</v>
       </c>
       <c r="D1679">
-        <v>129.3785186242111</v>
+        <v>129.3917699386562</v>
       </c>
     </row>
     <row r="1680" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>16</v>
       </c>
       <c r="D1680">
-        <v>163.0462948974208</v>
+        <v>163.4311518970403</v>
       </c>
     </row>
     <row r="1681" spans="1:4">
@@ -24778,7 +24778,7 @@
         <v>17</v>
       </c>
       <c r="D1681">
-        <v>174.3234342749502</v>
+        <v>173.9605246123441</v>
       </c>
     </row>
     <row r="1682" spans="1:4">
@@ -24792,7 +24792,7 @@
         <v>18</v>
       </c>
       <c r="D1682">
-        <v>142.0540380108502</v>
+        <v>142.0452414293694</v>
       </c>
     </row>
     <row r="1683" spans="1:4">
@@ -24862,7 +24862,7 @@
         <v>23</v>
       </c>
       <c r="D1687">
-        <v>150.6085166035569</v>
+        <v>148.6675829857409</v>
       </c>
     </row>
     <row r="1688" spans="1:4">
@@ -25380,7 +25380,7 @@
         <v>60</v>
       </c>
       <c r="D1724">
-        <v>162.496673425352</v>
+        <v>162.4647021317444</v>
       </c>
     </row>
     <row r="1725" spans="1:4">
@@ -25730,7 +25730,7 @@
         <v>85</v>
       </c>
       <c r="D1749">
-        <v>133.1576891166061</v>
+        <v>132.3909928156969</v>
       </c>
     </row>
     <row r="1750" spans="1:4">
@@ -28656,7 +28656,7 @@
         <v>15</v>
       </c>
       <c r="D1958">
-        <v>125.805587978378</v>
+        <v>125.8107181856492</v>
       </c>
     </row>
     <row r="1959" spans="1:4">
@@ -28670,7 +28670,7 @@
         <v>16</v>
       </c>
       <c r="D1959">
-        <v>170.5195160709783</v>
+        <v>170.204418155976</v>
       </c>
     </row>
     <row r="1960" spans="1:4">
@@ -28684,7 +28684,7 @@
         <v>17</v>
       </c>
       <c r="D1960">
-        <v>210.0649151511743</v>
+        <v>213.799535884298</v>
       </c>
     </row>
     <row r="1961" spans="1:4">
@@ -28768,7 +28768,7 @@
         <v>23</v>
       </c>
       <c r="D1966">
-        <v>168.6042300305833</v>
+        <v>168.5374826905785</v>
       </c>
     </row>
     <row r="1967" spans="1:4">
@@ -29286,7 +29286,7 @@
         <v>60</v>
       </c>
       <c r="D2003">
-        <v>166.4215573387759</v>
+        <v>166.4527454038989</v>
       </c>
     </row>
     <row r="2004" spans="1:4">
@@ -29636,7 +29636,7 @@
         <v>85</v>
       </c>
       <c r="D2028">
-        <v>186.2356164984124</v>
+        <v>185.7786729183299</v>
       </c>
     </row>
     <row r="2029" spans="1:4">
@@ -32562,7 +32562,7 @@
         <v>15</v>
       </c>
       <c r="D2237">
-        <v>151.1049352539469</v>
+        <v>151.099658306315</v>
       </c>
     </row>
     <row r="2238" spans="1:4">
@@ -32576,7 +32576,7 @@
         <v>16</v>
       </c>
       <c r="D2238">
-        <v>172.8516326102524</v>
+        <v>171.437962874708</v>
       </c>
     </row>
     <row r="2239" spans="1:4">
@@ -32590,7 +32590,7 @@
         <v>17</v>
       </c>
       <c r="D2239">
-        <v>134.2501657794251</v>
+        <v>135.6581912793406</v>
       </c>
     </row>
     <row r="2240" spans="1:4">
@@ -32674,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="D2245">
-        <v>154.7449009943556</v>
+        <v>165.8648115130096</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
@@ -33192,7 +33192,7 @@
         <v>60</v>
       </c>
       <c r="D2282">
-        <v>180.4708405347438</v>
+        <v>178.0245153038149</v>
       </c>
     </row>
     <row r="2283" spans="1:4">
@@ -33542,7 +33542,7 @@
         <v>85</v>
       </c>
       <c r="D2307">
-        <v>121.3841808310226</v>
+        <v>120.6732576479909</v>
       </c>
     </row>
     <row r="2308" spans="1:4">
